--- a/biology/Zoologie/Achrioptera_fallax/Achrioptera_fallax.xlsx
+++ b/biology/Zoologie/Achrioptera_fallax/Achrioptera_fallax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achrioptera fallax est une espèce de phasme endémique de Madagascar.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle est bleu électrique, tirant vers le vert, avec des rangées d'épines rougeâtres le long du premier segment de ses pattes. Ses ailes sont réduites. La paire supérieur est jaunâtre, la paire inférieure rouge vif.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
